--- a/Code/Results/Cases/Case_5_182/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_182/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9955435077519087</v>
+        <v>1.053650188724249</v>
       </c>
       <c r="D2">
-        <v>1.012841159007496</v>
+        <v>1.050880821334307</v>
       </c>
       <c r="E2">
-        <v>1.007898869219199</v>
+        <v>1.059413228233384</v>
       </c>
       <c r="F2">
-        <v>1.010274849014586</v>
+        <v>1.068230967277937</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039342332433908</v>
+        <v>1.037365202626548</v>
       </c>
       <c r="J2">
-        <v>1.017858333704911</v>
+        <v>1.05866641924357</v>
       </c>
       <c r="K2">
-        <v>1.024124448547239</v>
+        <v>1.053633869327474</v>
       </c>
       <c r="L2">
-        <v>1.019249246258022</v>
+        <v>1.062142800196144</v>
       </c>
       <c r="M2">
-        <v>1.021592871008517</v>
+        <v>1.070936704493662</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004719312456724</v>
+        <v>1.055403096830602</v>
       </c>
       <c r="D3">
-        <v>1.019771880075304</v>
+        <v>1.052200904220148</v>
       </c>
       <c r="E3">
-        <v>1.016043797838086</v>
+        <v>1.061019939041431</v>
       </c>
       <c r="F3">
-        <v>1.019266919127542</v>
+        <v>1.070028090516585</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041840761473576</v>
+        <v>1.037738308848142</v>
       </c>
       <c r="J3">
-        <v>1.025082145840059</v>
+        <v>1.060066399894186</v>
       </c>
       <c r="K3">
-        <v>1.030157875137158</v>
+        <v>1.054765180773</v>
       </c>
       <c r="L3">
-        <v>1.026475429723253</v>
+        <v>1.063561731626831</v>
       </c>
       <c r="M3">
-        <v>1.02965907130368</v>
+        <v>1.072547329010809</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010444382798218</v>
+        <v>1.056534558412089</v>
       </c>
       <c r="D4">
-        <v>1.024097794682544</v>
+        <v>1.053052377789828</v>
       </c>
       <c r="E4">
-        <v>1.021132321617819</v>
+        <v>1.062057226333646</v>
       </c>
       <c r="F4">
-        <v>1.024887031272427</v>
+        <v>1.07118877299439</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043385021465338</v>
+        <v>1.03797720051891</v>
       </c>
       <c r="J4">
-        <v>1.029584641663628</v>
+        <v>1.060969202151512</v>
       </c>
       <c r="K4">
-        <v>1.033913826349401</v>
+        <v>1.055493970113599</v>
       </c>
       <c r="L4">
-        <v>1.030982216701744</v>
+        <v>1.064477033107041</v>
       </c>
       <c r="M4">
-        <v>1.034694091179666</v>
+        <v>1.073586889217516</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012803838012202</v>
+        <v>1.057009572302049</v>
       </c>
       <c r="D5">
-        <v>1.025880837764628</v>
+        <v>1.053409698958796</v>
       </c>
       <c r="E5">
-        <v>1.023230917386141</v>
+        <v>1.062492749013972</v>
       </c>
       <c r="F5">
-        <v>1.027205461017119</v>
+        <v>1.071676216978872</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044017863818575</v>
+        <v>1.038077027817218</v>
       </c>
       <c r="J5">
-        <v>1.031439030434518</v>
+        <v>1.06134801480646</v>
       </c>
       <c r="K5">
-        <v>1.035459595686426</v>
+        <v>1.055799585778427</v>
       </c>
       <c r="L5">
-        <v>1.032839043010557</v>
+        <v>1.064861157119962</v>
       </c>
       <c r="M5">
-        <v>1.036769608623585</v>
+        <v>1.074023305725721</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.013197317256869</v>
+        <v>1.057089291382632</v>
       </c>
       <c r="D6">
-        <v>1.026178198572849</v>
+        <v>1.053469657614496</v>
       </c>
       <c r="E6">
-        <v>1.02358097767367</v>
+        <v>1.062565843129681</v>
       </c>
       <c r="F6">
-        <v>1.027592227295931</v>
+        <v>1.071758031649947</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044123187443933</v>
+        <v>1.038093754018946</v>
       </c>
       <c r="J6">
-        <v>1.031748207537031</v>
+        <v>1.061411576916443</v>
       </c>
       <c r="K6">
-        <v>1.035717248616268</v>
+        <v>1.055850855266772</v>
       </c>
       <c r="L6">
-        <v>1.033148665828728</v>
+        <v>1.064925614354194</v>
       </c>
       <c r="M6">
-        <v>1.03711576037987</v>
+        <v>1.07409654631287</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010476091763513</v>
+        <v>1.056540908114904</v>
       </c>
       <c r="D7">
-        <v>1.024121756539205</v>
+        <v>1.053057154827064</v>
       </c>
       <c r="E7">
-        <v>1.021160519153185</v>
+        <v>1.062063047964242</v>
       </c>
       <c r="F7">
-        <v>1.02491818016724</v>
+        <v>1.071195288217289</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043393540634225</v>
+        <v>1.037978536779534</v>
       </c>
       <c r="J7">
-        <v>1.029609567900884</v>
+        <v>1.060974266699098</v>
       </c>
       <c r="K7">
-        <v>1.033934608814773</v>
+        <v>1.055498056767319</v>
       </c>
       <c r="L7">
-        <v>1.031007173052705</v>
+        <v>1.064482168402531</v>
       </c>
       <c r="M7">
-        <v>1.03472198260698</v>
+        <v>1.073592723033375</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9986906723806852</v>
+        <v>1.054243178211907</v>
       </c>
       <c r="D8">
-        <v>1.015217838316635</v>
+        <v>1.051327516386072</v>
       </c>
       <c r="E8">
-        <v>1.010690973173613</v>
+        <v>1.059956720352591</v>
       </c>
       <c r="F8">
-        <v>1.013356883715164</v>
+        <v>1.068838772663169</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040202291810971</v>
+        <v>1.037491822301842</v>
       </c>
       <c r="J8">
-        <v>1.020336923742183</v>
+        <v>1.059140193805012</v>
       </c>
       <c r="K8">
-        <v>1.026195545568908</v>
+        <v>1.054016878895823</v>
       </c>
       <c r="L8">
-        <v>1.021728049903513</v>
+        <v>1.0626229302272</v>
       </c>
       <c r="M8">
-        <v>1.02435891677893</v>
+        <v>1.071481573259737</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9761193370820701</v>
+        <v>1.050172275822988</v>
       </c>
       <c r="D9">
-        <v>0.9981877534341239</v>
+        <v>1.048258476013772</v>
       </c>
       <c r="E9">
-        <v>0.9907009562710155</v>
+        <v>1.056226444579035</v>
       </c>
       <c r="F9">
-        <v>0.9912995887281734</v>
+        <v>1.06466898643421</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033974889830029</v>
+        <v>1.036614604654652</v>
       </c>
       <c r="J9">
-        <v>1.002544512171865</v>
+        <v>1.055884216794039</v>
       </c>
       <c r="K9">
-        <v>1.011310301662875</v>
+        <v>1.051381576857985</v>
       </c>
       <c r="L9">
-        <v>1.00394672748735</v>
+        <v>1.059324422739516</v>
       </c>
       <c r="M9">
-        <v>1.00453541908324</v>
+        <v>1.067740793578947</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9595658519220389</v>
+        <v>1.047442613310522</v>
       </c>
       <c r="D10">
-        <v>0.9857289796681975</v>
+        <v>1.046197558995675</v>
       </c>
       <c r="E10">
-        <v>0.9760932773735004</v>
+        <v>1.053726253064014</v>
       </c>
       <c r="F10">
-        <v>0.9751898482540575</v>
+        <v>1.061876601015298</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029335876618204</v>
+        <v>1.036016406309811</v>
       </c>
       <c r="J10">
-        <v>0.9894809287527278</v>
+        <v>1.053696618266694</v>
       </c>
       <c r="K10">
-        <v>1.000360772705506</v>
+        <v>1.049607114222979</v>
       </c>
       <c r="L10">
-        <v>0.9909080206742098</v>
+        <v>1.057109690804467</v>
       </c>
       <c r="M10">
-        <v>0.9900219875304557</v>
+        <v>1.065232223656361</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9519588040070103</v>
+        <v>1.046256700794695</v>
       </c>
       <c r="D11">
-        <v>0.9800151508015208</v>
+        <v>1.045301484091681</v>
       </c>
       <c r="E11">
-        <v>0.9693959217566533</v>
+        <v>1.052640299790607</v>
       </c>
       <c r="F11">
-        <v>0.967804981160726</v>
+        <v>1.060664295946989</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027188897889772</v>
+        <v>1.035754152347265</v>
       </c>
       <c r="J11">
-        <v>0.9834763324575502</v>
+        <v>1.05274517860502</v>
       </c>
       <c r="K11">
-        <v>0.9953240564088119</v>
+        <v>1.048834444573802</v>
       </c>
       <c r="L11">
-        <v>0.9849190228589458</v>
+        <v>1.056146791689279</v>
       </c>
       <c r="M11">
-        <v>0.9833607066180722</v>
+        <v>1.064142310185643</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9490586140765889</v>
+        <v>1.045815588513747</v>
       </c>
       <c r="D12">
-        <v>0.9778389071820817</v>
+        <v>1.044968075995464</v>
       </c>
       <c r="E12">
-        <v>0.9668451867049718</v>
+        <v>1.052236409042711</v>
       </c>
       <c r="F12">
-        <v>0.9649924849518901</v>
+        <v>1.060213496227339</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026368283032553</v>
+        <v>1.035656249671516</v>
       </c>
       <c r="J12">
-        <v>0.9811871100193369</v>
+        <v>1.052391126906149</v>
       </c>
       <c r="K12">
-        <v>0.9934033612449579</v>
+        <v>1.048546780585648</v>
       </c>
       <c r="L12">
-        <v>0.982636392644107</v>
+        <v>1.05578852695394</v>
       </c>
       <c r="M12">
-        <v>0.9808225770337553</v>
+        <v>1.063736898008372</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9496842460819381</v>
+        <v>1.04591023656188</v>
       </c>
       <c r="D13">
-        <v>0.9783082640095346</v>
+        <v>1.045039618977315</v>
       </c>
       <c r="E13">
-        <v>0.9673953097634134</v>
+        <v>1.052323068731135</v>
       </c>
       <c r="F13">
-        <v>0.9655990605715594</v>
+        <v>1.060310217006289</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026545397126856</v>
+        <v>1.035677272370015</v>
       </c>
       <c r="J13">
-        <v>0.9816809379405244</v>
+        <v>1.052467101601693</v>
       </c>
       <c r="K13">
-        <v>0.9938177104259822</v>
+        <v>1.048608515546876</v>
       </c>
       <c r="L13">
-        <v>0.9831287690451509</v>
+        <v>1.055865403390602</v>
       </c>
       <c r="M13">
-        <v>0.9813700336553011</v>
+        <v>1.063823886339172</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9517206506241302</v>
+        <v>1.046220250896828</v>
       </c>
       <c r="D14">
-        <v>0.9798363990539195</v>
+        <v>1.045273936092881</v>
       </c>
       <c r="E14">
-        <v>0.9691864091652646</v>
+        <v>1.052606924740113</v>
       </c>
       <c r="F14">
-        <v>0.9675739669098641</v>
+        <v>1.060627042913301</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027121552688568</v>
+        <v>1.035746069701631</v>
       </c>
       <c r="J14">
-        <v>0.9832883474713291</v>
+        <v>1.052715925815533</v>
       </c>
       <c r="K14">
-        <v>0.9951663428245572</v>
+        <v>1.04881067971239</v>
       </c>
       <c r="L14">
-        <v>0.9847315660258817</v>
+        <v>1.056117189761061</v>
       </c>
       <c r="M14">
-        <v>0.9831522527478013</v>
+        <v>1.064108810405183</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9529651775579413</v>
+        <v>1.046411179378481</v>
       </c>
       <c r="D15">
-        <v>0.9807705987073316</v>
+        <v>1.045418231228063</v>
       </c>
       <c r="E15">
-        <v>0.9702813755255845</v>
+        <v>1.052781748510855</v>
       </c>
       <c r="F15">
-        <v>0.9687813091992101</v>
+        <v>1.060822183612772</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027473398033785</v>
+        <v>1.035788392956566</v>
       </c>
       <c r="J15">
-        <v>0.9842707103219326</v>
+        <v>1.052869148770915</v>
       </c>
       <c r="K15">
-        <v>0.9959904963694665</v>
+        <v>1.048935151907832</v>
       </c>
       <c r="L15">
-        <v>0.9857111951565677</v>
+        <v>1.056272243565719</v>
       </c>
       <c r="M15">
-        <v>0.9842416396106223</v>
+        <v>1.064284285542453</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9600607534234259</v>
+        <v>1.047521233648695</v>
       </c>
       <c r="D16">
-        <v>0.9861009823887243</v>
+        <v>1.046256949852759</v>
       </c>
       <c r="E16">
-        <v>0.9765293389603514</v>
+        <v>1.053798252227902</v>
       </c>
       <c r="F16">
-        <v>0.9756706898907163</v>
+        <v>1.0619569891584</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029475259763691</v>
+        <v>1.036033742796249</v>
       </c>
       <c r="J16">
-        <v>0.9898715688280662</v>
+        <v>1.053759672574339</v>
       </c>
       <c r="K16">
-        <v>1.000688375086301</v>
+        <v>1.049658301841867</v>
       </c>
       <c r="L16">
-        <v>0.9912977331244766</v>
+        <v>1.05717351173939</v>
       </c>
       <c r="M16">
-        <v>0.9904555485275766</v>
+        <v>1.065304478600858</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9643884238605597</v>
+        <v>1.048216471001874</v>
       </c>
       <c r="D17">
-        <v>0.9893552958252957</v>
+        <v>1.046782060759585</v>
       </c>
       <c r="E17">
-        <v>0.980344249329656</v>
+        <v>1.054434969365424</v>
       </c>
       <c r="F17">
-        <v>0.979877481437753</v>
+        <v>1.062667958150532</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030692422379637</v>
+        <v>1.036186776250516</v>
       </c>
       <c r="J17">
-        <v>0.9932874009706368</v>
+        <v>1.054317141387843</v>
       </c>
       <c r="K17">
-        <v>1.003552575495968</v>
+        <v>1.050110751056782</v>
       </c>
       <c r="L17">
-        <v>0.9947059216916264</v>
+        <v>1.057737797732539</v>
       </c>
       <c r="M17">
-        <v>0.9942477766340932</v>
+        <v>1.065943420640554</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9668709536487938</v>
+        <v>1.048621611236735</v>
       </c>
       <c r="D18">
-        <v>0.9912231457952324</v>
+        <v>1.047087994441821</v>
       </c>
       <c r="E18">
-        <v>0.9825340604793275</v>
+        <v>1.05480603315569</v>
       </c>
       <c r="F18">
-        <v>0.9822923521196916</v>
+        <v>1.063082348328344</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031389212996375</v>
+        <v>1.0362757267273</v>
       </c>
       <c r="J18">
-        <v>0.9952467244654982</v>
+        <v>1.054641899732523</v>
       </c>
       <c r="K18">
-        <v>1.005195118737355</v>
+        <v>1.050374241432264</v>
       </c>
       <c r="L18">
-        <v>0.9966612468755284</v>
+        <v>1.058066560352872</v>
       </c>
       <c r="M18">
-        <v>0.9964239072041235</v>
+        <v>1.066315750152157</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9677105904624211</v>
+        <v>1.048759689683288</v>
       </c>
       <c r="D19">
-        <v>0.991855052048169</v>
+        <v>1.047192250145542</v>
       </c>
       <c r="E19">
-        <v>0.9832749275538222</v>
+        <v>1.054932502075422</v>
       </c>
       <c r="F19">
-        <v>0.9831093842142887</v>
+        <v>1.063223593287068</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031624633407119</v>
+        <v>1.036306003869</v>
       </c>
       <c r="J19">
-        <v>0.9959093737971924</v>
+        <v>1.054752565879658</v>
       </c>
       <c r="K19">
-        <v>1.005750567467406</v>
+        <v>1.050464014700606</v>
       </c>
       <c r="L19">
-        <v>0.9973226089379893</v>
+        <v>1.058178596591318</v>
       </c>
       <c r="M19">
-        <v>0.9971600353907375</v>
+        <v>1.066442645233358</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9639284789115626</v>
+        <v>1.04814191804378</v>
       </c>
       <c r="D20">
-        <v>0.9890093160618402</v>
+        <v>1.04672575809946</v>
       </c>
       <c r="E20">
-        <v>0.979938650573124</v>
+        <v>1.054366689116301</v>
       </c>
       <c r="F20">
-        <v>0.9794302068274303</v>
+        <v>1.06259170968293</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030563209231687</v>
+        <v>1.036170389446464</v>
       </c>
       <c r="J20">
-        <v>0.9929243791369486</v>
+        <v>1.054257372128957</v>
       </c>
       <c r="K20">
-        <v>1.003248216222414</v>
+        <v>1.050062250609576</v>
       </c>
       <c r="L20">
-        <v>0.9943436718747699</v>
+        <v>1.057677294165697</v>
       </c>
       <c r="M20">
-        <v>0.9938446585983632</v>
+        <v>1.065874904996826</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.95112311660603</v>
+        <v>1.04612897643023</v>
       </c>
       <c r="D21">
-        <v>0.9793879416924708</v>
+        <v>1.045204951267176</v>
       </c>
       <c r="E21">
-        <v>0.9686607791585986</v>
+        <v>1.052523350682127</v>
       </c>
       <c r="F21">
-        <v>0.9669943940310292</v>
+        <v>1.06053375940247</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026952548917236</v>
+        <v>1.035725824162322</v>
       </c>
       <c r="J21">
-        <v>0.9828166888364728</v>
+        <v>1.052642671198058</v>
       </c>
       <c r="K21">
-        <v>0.9947706286320197</v>
+        <v>1.048751165720505</v>
       </c>
       <c r="L21">
-        <v>0.9842612429717916</v>
+        <v>1.056043061660886</v>
       </c>
       <c r="M21">
-        <v>0.982629260456346</v>
+        <v>1.064024923227439</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9426347624658182</v>
+        <v>1.044859812710289</v>
       </c>
       <c r="D22">
-        <v>0.9730231065483779</v>
+        <v>1.044245478788727</v>
       </c>
       <c r="E22">
-        <v>0.9612006321824799</v>
+        <v>1.051361358055323</v>
       </c>
       <c r="F22">
-        <v>0.9587687122970259</v>
+        <v>1.059236968045566</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024547041038333</v>
+        <v>1.035443471731789</v>
       </c>
       <c r="J22">
-        <v>0.9761168874204</v>
+        <v>1.051623707668535</v>
       </c>
       <c r="K22">
-        <v>0.9891486169948454</v>
+        <v>1.047923009711609</v>
       </c>
       <c r="L22">
-        <v>0.9775819912724633</v>
+        <v>1.055012069630889</v>
       </c>
       <c r="M22">
-        <v>0.9752037415973177</v>
+        <v>1.062858461608526</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9471793541122151</v>
+        <v>1.045532962740023</v>
       </c>
       <c r="D23">
-        <v>0.9764294160410576</v>
+        <v>1.044754428490688</v>
       </c>
       <c r="E23">
-        <v>0.9651931515664514</v>
+        <v>1.051977643102262</v>
       </c>
       <c r="F23">
-        <v>0.9631709253175673</v>
+        <v>1.059924700154893</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025835983764644</v>
+        <v>1.035593422519479</v>
       </c>
       <c r="J23">
-        <v>0.9797037849560508</v>
+        <v>1.052164238581578</v>
       </c>
       <c r="K23">
-        <v>0.9921587084030052</v>
+        <v>1.048362397381087</v>
       </c>
       <c r="L23">
-        <v>0.9811575239505869</v>
+        <v>1.055558953206477</v>
       </c>
       <c r="M23">
-        <v>0.9791783777155034</v>
+        <v>1.063477143609545</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9641364365567462</v>
+        <v>1.048175606490225</v>
       </c>
       <c r="D24">
-        <v>0.9891657427375126</v>
+        <v>1.046751199943748</v>
       </c>
       <c r="E24">
-        <v>0.9801220319484124</v>
+        <v>1.054397543018277</v>
       </c>
       <c r="F24">
-        <v>0.9796324305398451</v>
+        <v>1.06262616402871</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030621635585969</v>
+        <v>1.036177794899874</v>
       </c>
       <c r="J24">
-        <v>0.9930885148042262</v>
+        <v>1.054284380531815</v>
       </c>
       <c r="K24">
-        <v>1.003385829505266</v>
+        <v>1.050084167158059</v>
       </c>
       <c r="L24">
-        <v>0.9945074572844692</v>
+        <v>1.057704634284412</v>
       </c>
       <c r="M24">
-        <v>0.9940269204285493</v>
+        <v>1.065905865362426</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9821957830202148</v>
+        <v>1.051227404975001</v>
       </c>
       <c r="D25">
-        <v>1.002768433673566</v>
+        <v>1.049054473723363</v>
       </c>
       <c r="E25">
-        <v>0.996074455912244</v>
+        <v>1.057193102788797</v>
       </c>
       <c r="F25">
-        <v>0.9972270917789412</v>
+        <v>1.06574911820426</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035664031266905</v>
+        <v>1.036843728702271</v>
       </c>
       <c r="J25">
-        <v>1.00733755391732</v>
+        <v>1.056728897247429</v>
       </c>
       <c r="K25">
-        <v>1.015323924755277</v>
+        <v>1.052065922405377</v>
       </c>
       <c r="L25">
-        <v>1.008734018095533</v>
+        <v>1.060179883316744</v>
       </c>
       <c r="M25">
-        <v>1.009868606630476</v>
+        <v>1.068710407826122</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_182/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_182/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.053650188724249</v>
+        <v>0.9955435077519063</v>
       </c>
       <c r="D2">
-        <v>1.050880821334307</v>
+        <v>1.012841159007495</v>
       </c>
       <c r="E2">
-        <v>1.059413228233384</v>
+        <v>1.007898869219197</v>
       </c>
       <c r="F2">
-        <v>1.068230967277937</v>
+        <v>1.010274849014584</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037365202626548</v>
+        <v>1.039342332433907</v>
       </c>
       <c r="J2">
-        <v>1.05866641924357</v>
+        <v>1.017858333704909</v>
       </c>
       <c r="K2">
-        <v>1.053633869327474</v>
+        <v>1.024124448547237</v>
       </c>
       <c r="L2">
-        <v>1.062142800196144</v>
+        <v>1.019249246258019</v>
       </c>
       <c r="M2">
-        <v>1.070936704493662</v>
+        <v>1.021592871008515</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.055403096830602</v>
+        <v>1.004719312456722</v>
       </c>
       <c r="D3">
-        <v>1.052200904220148</v>
+        <v>1.019771880075302</v>
       </c>
       <c r="E3">
-        <v>1.061019939041431</v>
+        <v>1.016043797838084</v>
       </c>
       <c r="F3">
-        <v>1.070028090516585</v>
+        <v>1.019266919127539</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037738308848142</v>
+        <v>1.041840761473575</v>
       </c>
       <c r="J3">
-        <v>1.060066399894186</v>
+        <v>1.025082145840056</v>
       </c>
       <c r="K3">
-        <v>1.054765180773</v>
+        <v>1.030157875137156</v>
       </c>
       <c r="L3">
-        <v>1.063561731626831</v>
+        <v>1.026475429723251</v>
       </c>
       <c r="M3">
-        <v>1.072547329010809</v>
+        <v>1.029659071303677</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056534558412089</v>
+        <v>1.010444382798216</v>
       </c>
       <c r="D4">
-        <v>1.053052377789828</v>
+        <v>1.024097794682542</v>
       </c>
       <c r="E4">
-        <v>1.062057226333646</v>
+        <v>1.021132321617817</v>
       </c>
       <c r="F4">
-        <v>1.07118877299439</v>
+        <v>1.024887031272425</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03797720051891</v>
+        <v>1.043385021465338</v>
       </c>
       <c r="J4">
-        <v>1.060969202151512</v>
+        <v>1.029584641663626</v>
       </c>
       <c r="K4">
-        <v>1.055493970113599</v>
+        <v>1.033913826349399</v>
       </c>
       <c r="L4">
-        <v>1.064477033107041</v>
+        <v>1.030982216701742</v>
       </c>
       <c r="M4">
-        <v>1.073586889217516</v>
+        <v>1.034694091179663</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.057009572302049</v>
+        <v>1.012803838012202</v>
       </c>
       <c r="D5">
-        <v>1.053409698958796</v>
+        <v>1.025880837764628</v>
       </c>
       <c r="E5">
-        <v>1.062492749013972</v>
+        <v>1.023230917386141</v>
       </c>
       <c r="F5">
-        <v>1.071676216978872</v>
+        <v>1.027205461017119</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038077027817218</v>
+        <v>1.044017863818575</v>
       </c>
       <c r="J5">
-        <v>1.06134801480646</v>
+        <v>1.031439030434519</v>
       </c>
       <c r="K5">
-        <v>1.055799585778427</v>
+        <v>1.035459595686426</v>
       </c>
       <c r="L5">
-        <v>1.064861157119962</v>
+        <v>1.032839043010557</v>
       </c>
       <c r="M5">
-        <v>1.074023305725721</v>
+        <v>1.036769608623585</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.057089291382632</v>
+        <v>1.013197317256866</v>
       </c>
       <c r="D6">
-        <v>1.053469657614496</v>
+        <v>1.026178198572846</v>
       </c>
       <c r="E6">
-        <v>1.062565843129681</v>
+        <v>1.023580977673668</v>
       </c>
       <c r="F6">
-        <v>1.071758031649947</v>
+        <v>1.027592227295928</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038093754018946</v>
+        <v>1.044123187443932</v>
       </c>
       <c r="J6">
-        <v>1.061411576916443</v>
+        <v>1.031748207537029</v>
       </c>
       <c r="K6">
-        <v>1.055850855266772</v>
+        <v>1.035717248616266</v>
       </c>
       <c r="L6">
-        <v>1.064925614354194</v>
+        <v>1.033148665828725</v>
       </c>
       <c r="M6">
-        <v>1.07409654631287</v>
+        <v>1.037115760379867</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.056540908114904</v>
+        <v>1.010476091763514</v>
       </c>
       <c r="D7">
-        <v>1.053057154827064</v>
+        <v>1.024121756539206</v>
       </c>
       <c r="E7">
-        <v>1.062063047964242</v>
+        <v>1.021160519153187</v>
       </c>
       <c r="F7">
-        <v>1.071195288217289</v>
+        <v>1.024918180167242</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037978536779534</v>
+        <v>1.043393540634226</v>
       </c>
       <c r="J7">
-        <v>1.060974266699098</v>
+        <v>1.029609567900885</v>
       </c>
       <c r="K7">
-        <v>1.055498056767319</v>
+        <v>1.033934608814774</v>
       </c>
       <c r="L7">
-        <v>1.064482168402531</v>
+        <v>1.031007173052706</v>
       </c>
       <c r="M7">
-        <v>1.073592723033375</v>
+        <v>1.034721982606981</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.054243178211907</v>
+        <v>0.9986906723806845</v>
       </c>
       <c r="D8">
-        <v>1.051327516386072</v>
+        <v>1.015217838316635</v>
       </c>
       <c r="E8">
-        <v>1.059956720352591</v>
+        <v>1.010690973173612</v>
       </c>
       <c r="F8">
-        <v>1.068838772663169</v>
+        <v>1.013356883715163</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037491822301842</v>
+        <v>1.04020229181097</v>
       </c>
       <c r="J8">
-        <v>1.059140193805012</v>
+        <v>1.020336923742182</v>
       </c>
       <c r="K8">
-        <v>1.054016878895823</v>
+        <v>1.026195545568908</v>
       </c>
       <c r="L8">
-        <v>1.0626229302272</v>
+        <v>1.021728049903513</v>
       </c>
       <c r="M8">
-        <v>1.071481573259737</v>
+        <v>1.024358916778929</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.050172275822988</v>
+        <v>0.9761193370820699</v>
       </c>
       <c r="D9">
-        <v>1.048258476013772</v>
+        <v>0.9981877534341239</v>
       </c>
       <c r="E9">
-        <v>1.056226444579035</v>
+        <v>0.9907009562710155</v>
       </c>
       <c r="F9">
-        <v>1.06466898643421</v>
+        <v>0.9912995887281731</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036614604654652</v>
+        <v>1.033974889830029</v>
       </c>
       <c r="J9">
-        <v>1.055884216794039</v>
+        <v>1.002544512171865</v>
       </c>
       <c r="K9">
-        <v>1.051381576857985</v>
+        <v>1.011310301662875</v>
       </c>
       <c r="L9">
-        <v>1.059324422739516</v>
+        <v>1.00394672748735</v>
       </c>
       <c r="M9">
-        <v>1.067740793578947</v>
+        <v>1.00453541908324</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.047442613310522</v>
+        <v>0.9595658519220382</v>
       </c>
       <c r="D10">
-        <v>1.046197558995675</v>
+        <v>0.9857289796681968</v>
       </c>
       <c r="E10">
-        <v>1.053726253064014</v>
+        <v>0.9760932773734998</v>
       </c>
       <c r="F10">
-        <v>1.061876601015298</v>
+        <v>0.9751898482540569</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036016406309811</v>
+        <v>1.029335876618204</v>
       </c>
       <c r="J10">
-        <v>1.053696618266694</v>
+        <v>0.9894809287527271</v>
       </c>
       <c r="K10">
-        <v>1.049607114222979</v>
+        <v>1.000360772705505</v>
       </c>
       <c r="L10">
-        <v>1.057109690804467</v>
+        <v>0.9909080206742092</v>
       </c>
       <c r="M10">
-        <v>1.065232223656361</v>
+        <v>0.990021987530455</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.046256700794695</v>
+        <v>0.9519588040070105</v>
       </c>
       <c r="D11">
-        <v>1.045301484091681</v>
+        <v>0.9800151508015212</v>
       </c>
       <c r="E11">
-        <v>1.052640299790607</v>
+        <v>0.969395921756654</v>
       </c>
       <c r="F11">
-        <v>1.060664295946989</v>
+        <v>0.9678049811607269</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035754152347265</v>
+        <v>1.027188897889772</v>
       </c>
       <c r="J11">
-        <v>1.05274517860502</v>
+        <v>0.9834763324575508</v>
       </c>
       <c r="K11">
-        <v>1.048834444573802</v>
+        <v>0.9953240564088122</v>
       </c>
       <c r="L11">
-        <v>1.056146791689279</v>
+        <v>0.9849190228589465</v>
       </c>
       <c r="M11">
-        <v>1.064142310185643</v>
+        <v>0.9833607066180731</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.045815588513747</v>
+        <v>0.9490586140765871</v>
       </c>
       <c r="D12">
-        <v>1.044968075995464</v>
+        <v>0.9778389071820806</v>
       </c>
       <c r="E12">
-        <v>1.052236409042711</v>
+        <v>0.9668451867049699</v>
       </c>
       <c r="F12">
-        <v>1.060213496227339</v>
+        <v>0.9649924849518884</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035656249671516</v>
+        <v>1.026368283032552</v>
       </c>
       <c r="J12">
-        <v>1.052391126906149</v>
+        <v>0.9811871100193355</v>
       </c>
       <c r="K12">
-        <v>1.048546780585648</v>
+        <v>0.9934033612449567</v>
       </c>
       <c r="L12">
-        <v>1.05578852695394</v>
+        <v>0.9826363926441054</v>
       </c>
       <c r="M12">
-        <v>1.063736898008372</v>
+        <v>0.9808225770337535</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.04591023656188</v>
+        <v>0.9496842460819362</v>
       </c>
       <c r="D13">
-        <v>1.045039618977315</v>
+        <v>0.978308264009533</v>
       </c>
       <c r="E13">
-        <v>1.052323068731135</v>
+        <v>0.9673953097634117</v>
       </c>
       <c r="F13">
-        <v>1.060310217006289</v>
+        <v>0.9655990605715574</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035677272370015</v>
+        <v>1.026545397126855</v>
       </c>
       <c r="J13">
-        <v>1.052467101601693</v>
+        <v>0.9816809379405225</v>
       </c>
       <c r="K13">
-        <v>1.048608515546876</v>
+        <v>0.9938177104259807</v>
       </c>
       <c r="L13">
-        <v>1.055865403390602</v>
+        <v>0.9831287690451493</v>
       </c>
       <c r="M13">
-        <v>1.063823886339172</v>
+        <v>0.9813700336552991</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.046220250896828</v>
+        <v>0.9517206506241295</v>
       </c>
       <c r="D14">
-        <v>1.045273936092881</v>
+        <v>0.9798363990539187</v>
       </c>
       <c r="E14">
-        <v>1.052606924740113</v>
+        <v>0.9691864091652633</v>
       </c>
       <c r="F14">
-        <v>1.060627042913301</v>
+        <v>0.9675739669098629</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035746069701631</v>
+        <v>1.027121552688568</v>
       </c>
       <c r="J14">
-        <v>1.052715925815533</v>
+        <v>0.9832883474713284</v>
       </c>
       <c r="K14">
-        <v>1.04881067971239</v>
+        <v>0.9951663428245566</v>
       </c>
       <c r="L14">
-        <v>1.056117189761061</v>
+        <v>0.9847315660258807</v>
       </c>
       <c r="M14">
-        <v>1.064108810405183</v>
+        <v>0.9831522527478003</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.046411179378481</v>
+        <v>0.9529651775579415</v>
       </c>
       <c r="D15">
-        <v>1.045418231228063</v>
+        <v>0.9807705987073319</v>
       </c>
       <c r="E15">
-        <v>1.052781748510855</v>
+        <v>0.9702813755255844</v>
       </c>
       <c r="F15">
-        <v>1.060822183612772</v>
+        <v>0.9687813091992098</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035788392956566</v>
+        <v>1.027473398033786</v>
       </c>
       <c r="J15">
-        <v>1.052869148770915</v>
+        <v>0.9842707103219328</v>
       </c>
       <c r="K15">
-        <v>1.048935151907832</v>
+        <v>0.9959904963694667</v>
       </c>
       <c r="L15">
-        <v>1.056272243565719</v>
+        <v>0.9857111951565676</v>
       </c>
       <c r="M15">
-        <v>1.064284285542453</v>
+        <v>0.9842416396106221</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.047521233648695</v>
+        <v>0.9600607534234259</v>
       </c>
       <c r="D16">
-        <v>1.046256949852759</v>
+        <v>0.9861009823887247</v>
       </c>
       <c r="E16">
-        <v>1.053798252227902</v>
+        <v>0.9765293389603512</v>
       </c>
       <c r="F16">
-        <v>1.0619569891584</v>
+        <v>0.9756706898907158</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036033742796249</v>
+        <v>1.029475259763691</v>
       </c>
       <c r="J16">
-        <v>1.053759672574339</v>
+        <v>0.9898715688280662</v>
       </c>
       <c r="K16">
-        <v>1.049658301841867</v>
+        <v>1.000688375086301</v>
       </c>
       <c r="L16">
-        <v>1.05717351173939</v>
+        <v>0.9912977331244763</v>
       </c>
       <c r="M16">
-        <v>1.065304478600858</v>
+        <v>0.9904555485275762</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.048216471001874</v>
+        <v>0.9643884238605566</v>
       </c>
       <c r="D17">
-        <v>1.046782060759585</v>
+        <v>0.9893552958252928</v>
       </c>
       <c r="E17">
-        <v>1.054434969365424</v>
+        <v>0.9803442493296531</v>
       </c>
       <c r="F17">
-        <v>1.062667958150532</v>
+        <v>0.97987748143775</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036186776250516</v>
+        <v>1.030692422379636</v>
       </c>
       <c r="J17">
-        <v>1.054317141387843</v>
+        <v>0.9932874009706337</v>
       </c>
       <c r="K17">
-        <v>1.050110751056782</v>
+        <v>1.003552575495966</v>
       </c>
       <c r="L17">
-        <v>1.057737797732539</v>
+        <v>0.9947059216916235</v>
       </c>
       <c r="M17">
-        <v>1.065943420640554</v>
+        <v>0.9942477766340903</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.048621611236735</v>
+        <v>0.9668709536487911</v>
       </c>
       <c r="D18">
-        <v>1.047087994441821</v>
+        <v>0.9912231457952297</v>
       </c>
       <c r="E18">
-        <v>1.05480603315569</v>
+        <v>0.9825340604793253</v>
       </c>
       <c r="F18">
-        <v>1.063082348328344</v>
+        <v>0.9822923521196892</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0362757267273</v>
+        <v>1.031389212996374</v>
       </c>
       <c r="J18">
-        <v>1.054641899732523</v>
+        <v>0.9952467244654958</v>
       </c>
       <c r="K18">
-        <v>1.050374241432264</v>
+        <v>1.005195118737353</v>
       </c>
       <c r="L18">
-        <v>1.058066560352872</v>
+        <v>0.9966612468755263</v>
       </c>
       <c r="M18">
-        <v>1.066315750152157</v>
+        <v>0.9964239072041212</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.048759689683288</v>
+        <v>0.9677105904624208</v>
       </c>
       <c r="D19">
-        <v>1.047192250145542</v>
+        <v>0.9918550520481687</v>
       </c>
       <c r="E19">
-        <v>1.054932502075422</v>
+        <v>0.9832749275538215</v>
       </c>
       <c r="F19">
-        <v>1.063223593287068</v>
+        <v>0.9831093842142881</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036306003869</v>
+        <v>1.031624633407119</v>
       </c>
       <c r="J19">
-        <v>1.054752565879658</v>
+        <v>0.9959093737971919</v>
       </c>
       <c r="K19">
-        <v>1.050464014700606</v>
+        <v>1.005750567467405</v>
       </c>
       <c r="L19">
-        <v>1.058178596591318</v>
+        <v>0.9973226089379889</v>
       </c>
       <c r="M19">
-        <v>1.066442645233358</v>
+        <v>0.9971600353907371</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.04814191804378</v>
+        <v>0.9639284789115622</v>
       </c>
       <c r="D20">
-        <v>1.04672575809946</v>
+        <v>0.9890093160618397</v>
       </c>
       <c r="E20">
-        <v>1.054366689116301</v>
+        <v>0.9799386505731235</v>
       </c>
       <c r="F20">
-        <v>1.06259170968293</v>
+        <v>0.9794302068274297</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036170389446464</v>
+        <v>1.030563209231687</v>
       </c>
       <c r="J20">
-        <v>1.054257372128957</v>
+        <v>0.9929243791369481</v>
       </c>
       <c r="K20">
-        <v>1.050062250609576</v>
+        <v>1.003248216222414</v>
       </c>
       <c r="L20">
-        <v>1.057677294165697</v>
+        <v>0.9943436718747694</v>
       </c>
       <c r="M20">
-        <v>1.065874904996826</v>
+        <v>0.9938446585983628</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.04612897643023</v>
+        <v>0.9511231166060292</v>
       </c>
       <c r="D21">
-        <v>1.045204951267176</v>
+        <v>0.9793879416924702</v>
       </c>
       <c r="E21">
-        <v>1.052523350682127</v>
+        <v>0.9686607791585982</v>
       </c>
       <c r="F21">
-        <v>1.06053375940247</v>
+        <v>0.966994394031028</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035725824162322</v>
+        <v>1.026952548917236</v>
       </c>
       <c r="J21">
-        <v>1.052642671198058</v>
+        <v>0.9828166888364722</v>
       </c>
       <c r="K21">
-        <v>1.048751165720505</v>
+        <v>0.994770628632019</v>
       </c>
       <c r="L21">
-        <v>1.056043061660886</v>
+        <v>0.9842612429717912</v>
       </c>
       <c r="M21">
-        <v>1.064024923227439</v>
+        <v>0.9826292604563452</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.044859812710289</v>
+        <v>0.9426347624658182</v>
       </c>
       <c r="D22">
-        <v>1.044245478788727</v>
+        <v>0.973023106548378</v>
       </c>
       <c r="E22">
-        <v>1.051361358055323</v>
+        <v>0.9612006321824798</v>
       </c>
       <c r="F22">
-        <v>1.059236968045566</v>
+        <v>0.958768712297026</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035443471731789</v>
+        <v>1.024547041038333</v>
       </c>
       <c r="J22">
-        <v>1.051623707668535</v>
+        <v>0.9761168874203999</v>
       </c>
       <c r="K22">
-        <v>1.047923009711609</v>
+        <v>0.9891486169948452</v>
       </c>
       <c r="L22">
-        <v>1.055012069630889</v>
+        <v>0.9775819912724631</v>
       </c>
       <c r="M22">
-        <v>1.062858461608526</v>
+        <v>0.9752037415973176</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.045532962740023</v>
+        <v>0.9471793541122164</v>
       </c>
       <c r="D23">
-        <v>1.044754428490688</v>
+        <v>0.9764294160410587</v>
       </c>
       <c r="E23">
-        <v>1.051977643102262</v>
+        <v>0.9651931515664525</v>
       </c>
       <c r="F23">
-        <v>1.059924700154893</v>
+        <v>0.9631709253175683</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035593422519479</v>
+        <v>1.025835983764644</v>
       </c>
       <c r="J23">
-        <v>1.052164238581578</v>
+        <v>0.9797037849560519</v>
       </c>
       <c r="K23">
-        <v>1.048362397381087</v>
+        <v>0.9921587084030062</v>
       </c>
       <c r="L23">
-        <v>1.055558953206477</v>
+        <v>0.9811575239505879</v>
       </c>
       <c r="M23">
-        <v>1.063477143609545</v>
+        <v>0.9791783777155041</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.048175606490225</v>
+        <v>0.9641364365567464</v>
       </c>
       <c r="D24">
-        <v>1.046751199943748</v>
+        <v>0.989165742737513</v>
       </c>
       <c r="E24">
-        <v>1.054397543018277</v>
+        <v>0.9801220319484126</v>
       </c>
       <c r="F24">
-        <v>1.06262616402871</v>
+        <v>0.9796324305398449</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036177794899874</v>
+        <v>1.030621635585969</v>
       </c>
       <c r="J24">
-        <v>1.054284380531815</v>
+        <v>0.9930885148042267</v>
       </c>
       <c r="K24">
-        <v>1.050084167158059</v>
+        <v>1.003385829505266</v>
       </c>
       <c r="L24">
-        <v>1.057704634284412</v>
+        <v>0.9945074572844693</v>
       </c>
       <c r="M24">
-        <v>1.065905865362426</v>
+        <v>0.9940269204285496</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.051227404975001</v>
+        <v>0.9821957830202158</v>
       </c>
       <c r="D25">
-        <v>1.049054473723363</v>
+        <v>1.002768433673567</v>
       </c>
       <c r="E25">
-        <v>1.057193102788797</v>
+        <v>0.996074455912245</v>
       </c>
       <c r="F25">
-        <v>1.06574911820426</v>
+        <v>0.9972270917789425</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036843728702271</v>
+        <v>1.035664031266905</v>
       </c>
       <c r="J25">
-        <v>1.056728897247429</v>
+        <v>1.007337553917321</v>
       </c>
       <c r="K25">
-        <v>1.052065922405377</v>
+        <v>1.015323924755278</v>
       </c>
       <c r="L25">
-        <v>1.060179883316744</v>
+        <v>1.008734018095534</v>
       </c>
       <c r="M25">
-        <v>1.068710407826122</v>
+        <v>1.009868606630477</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
